--- a/MCU/Stm/STM32DEVBD_BOM.xlsx
+++ b/MCU/Stm/STM32DEVBD_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="167">
   <si>
     <t>https://www.digikey.kr/ko/products/detail/bourns-inc/SDE0604A-330M/5031063?gad_source=1&amp;gad_campaignid=21235686913&amp;gbraid=0AAAAADrbLljZTMBY7e-pwpLImB7_7S9cP&amp;gclid=Cj0KCQjw097CBhDIARIsAJ3-nxfH4qr_P76Kgis6verFWFP1IPYf7d_xk8VQpTKyCvR8VoFVjnioTGcaAsGOEALw_wcB&amp;gclsrc=aw.ds</t>
   </si>
@@ -205,9 +205,6 @@
     <t>IND_SDE0604A_5P8X5P2X4P5_BRN</t>
   </si>
   <si>
-    <t>CONN_SD-42375-001_M240_10_MOL</t>
-  </si>
-  <si>
     <t>Q4,Q5,Q6,Q7</t>
   </si>
   <si>
@@ -454,9 +451,6 @@
     <t>QFP50P1600X1600X160-100N</t>
   </si>
   <si>
-    <t>SW_TS04-66-55-BK-160-SMT</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CONN TRBLK </t>
     </r>
@@ -481,9 +475,6 @@
     <t>https://www.digikey.kr/ko/products/detail/evvo/2N3055/25188522</t>
   </si>
   <si>
-    <t>https://www.snapeda.com/parts/L298P/STMicroelectronics/view-part/?ref=search&amp;t=L298&amp;ab_test_case=b</t>
-  </si>
-  <si>
     <t>https://www.snapeda.com/parts/TJA1051T/3/NXP%20USA/view-part/?ref=search&amp;t=TJA1051&amp;ab_test_case=b</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>CON MC10</t>
   </si>
   <si>
     <t>TO_3_ONS</t>
@@ -638,13 +626,21 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>SW_TS09-63-25-WT-260-SMT-TR</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/parts/L298P/STMicroelectronics/view-part/?ref=search&amp;t=L298&amp;ab_test_case=b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -721,7 +717,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +777,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,13 +1280,13 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="26.25" style="9" customWidth="1"/>
@@ -1296,49 +1299,49 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1352,13 +1355,13 @@
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1369,16 +1372,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1389,16 +1392,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1412,13 +1415,13 @@
         <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1429,16 +1432,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1449,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -1458,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1472,13 +1475,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1489,16 +1492,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1509,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
@@ -1518,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1532,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H24" s="19"/>
     </row>
@@ -1550,16 +1553,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1570,16 +1573,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1593,13 +1596,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1612,14 +1615,14 @@
       <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>143</v>
+      <c r="D28" s="20">
+        <v>61202021621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="G28" s="9">
+        <v>61202021621</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1633,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>4</v>
@@ -1656,7 +1659,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>10</v>
@@ -1676,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>46</v>
@@ -1685,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>1</v>
@@ -1699,19 +1702,19 @@
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1731,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1751,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1771,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1782,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
@@ -1791,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1811,18 +1814,18 @@
         <v>10</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1">
       <c r="C38" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H38" s="9"/>
     </row>
@@ -1837,13 +1840,13 @@
         <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>37</v>
@@ -1857,16 +1860,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="15"/>
     </row>
@@ -1881,16 +1884,16 @@
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="5" t="s">
@@ -1908,16 +1911,16 @@
         <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H42" s="15"/>
     </row>
@@ -1932,16 +1935,16 @@
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1955,16 +1958,16 @@
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1978,16 +1981,16 @@
         <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2001,18 +2004,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2023,21 +2026,21 @@
         <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2051,14 +2054,14 @@
         <v>21</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="5" t="s">
@@ -2073,17 +2076,17 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="5" t="s">
@@ -2101,18 +2104,18 @@
         <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2126,14 +2129,14 @@
         <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>43</v>
@@ -2150,18 +2153,18 @@
         <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2172,13 +2175,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="12">
         <v>696101000002</v>
@@ -2199,14 +2202,14 @@
         <v>19</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="5" t="s">
@@ -2224,18 +2227,18 @@
         <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="5" t="s">
-        <v>135</v>
+      <c r="I55" s="21" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2249,14 +2252,14 @@
         <v>16</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="5" t="s">
@@ -2274,18 +2277,18 @@
         <v>16</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2299,14 +2302,14 @@
         <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="5" t="s">
@@ -2324,13 +2327,13 @@
         <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2344,13 +2347,13 @@
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2364,13 +2367,13 @@
         <v>33</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/MCU/Stm/STM32DEVBD_BOM.xlsx
+++ b/MCU/Stm/STM32DEVBD_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
   <si>
     <t>https://www.snapeda.com/parts/LM358DRG3/Texas%20Instruments/view-part/?ref=search&amp;t=LM358&amp;ab_test_case=b</t>
   </si>
@@ -750,6 +750,9 @@
   <si>
     <t>CAPAE430X565N</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X10_PINHEADER</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1804,8 +1807,8 @@
       <c r="F28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="20">
-        <v>61202021621</v>
+      <c r="G28" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2601,11 +2604,11 @@
     <hyperlink ref="J32" r:id="rId16"/>
     <hyperlink ref="J31" r:id="rId17"/>
     <hyperlink ref="J30" r:id="rId18"/>
-    <hyperlink ref="J19"/>
-    <hyperlink ref="J22"/>
+    <hyperlink ref="J19" display="https://www.digikey.kr/ko/products/detail/kemet/EEV227M025A9MAA/9354341?gad_source=1&amp;gad_campaignid=21232107266&amp;gbraid=0AAAAADrbLlg1p6k-Iwy7SqOmrjI1tr8UX&amp;gclid=Cj0KCQjwyIPDBhDBARIsAHJyyVhvZ4ojub1fXH6K9zJsYLr7cg7FuQQGVUPAHghtkEN_wpUu_GsvVK0aAl1GEALw_wcB&amp;gc"/>
+    <hyperlink ref="J22" display="https://www.digikey.kr/ko/products/detail/kemet/EDT107M025S9MAA/21803465?gad_source=1&amp;gad_campaignid=21232107266&amp;gbraid=0AAAAADrbLlg1p6k-Iwy7SqOmrjI1tr8UX&amp;gclid=Cj0KCQjwyIPDBhDBARIsAHJyyVhPyXkVwVUaPZ6MJq35vyZQMG47CyZKEYP_-hSANXLJ2jT2i46YbXQaAu6UEALw_wcB&amp;g"/>
     <hyperlink ref="I19" r:id="rId19" location="download-modal"/>
     <hyperlink ref="I22" r:id="rId20" location="download-modal"/>
-    <hyperlink ref="I18"/>
+    <hyperlink ref="I18" display="https://www.digikey.kr/ko/products/detail/kemet/EEV687M016A9PAA/3082854?gad_source=1&amp;gad_campaignid=21607947973&amp;gbraid=0AAAAADrbLlj-1ePEfFvwjG4Lbllvsx5BI&amp;gclid=Cj0KCQjwyIPDBhDBARIsAHJyyVjnLclggS4Si_wfZxDF_2zDJTIpNsfE1gwL5xrfNTeWHepLaIOIaIUaArmpEALw_wcB&amp;gc"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId21"/>

--- a/MCU/Stm/STM32DEVBD_BOM.xlsx
+++ b/MCU/Stm/STM32DEVBD_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="185">
   <si>
     <t>https://www.snapeda.com/parts/LM358DRG3/Texas%20Instruments/view-part/?ref=search&amp;t=LM358&amp;ab_test_case=b</t>
   </si>
@@ -133,9 +133,6 @@
     <t>https://www.digikey.kr/ko/products/detail/onsemi/MMBT2222ALT3G/1967145?gad_source=1&amp;gad_campaignid=21607947973&amp;gbraid=0AAAAADrbLljcOC96UPALWBzC4NE5--xYg&amp;gclid=Cj0KCQjw097CBhDIARIsAJ3-nxeKMIwAJjZDKP4ELOOQ5KumK5JPo_BM9Gw-6NYlwNYCqt6Rsswh68oaAnMxEALw_wcB&amp;gclsrc=aw.ds</t>
   </si>
   <si>
-    <t>IND_SDE0604A_5P8X5P2X4P5_BRN</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Revised: Friday, May 30, 2025</t>
   </si>
   <si>
@@ -753,6 +750,23 @@
   </si>
   <si>
     <t>2X10_PINHEADER</t>
+  </si>
+  <si>
+    <t>IND_SDE0604A_5P8X5P2X4P5_BRN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE0604A_330M.d</t>
+  </si>
+  <si>
+    <t>LM2596S-3.3_NOPB.d</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3.d</t>
+  </si>
+  <si>
+    <t>SOD3715X135N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1396,8 +1410,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1413,12 +1427,12 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1426,39 +1440,39 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1486,17 +1500,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1507,17 +1521,17 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1528,17 +1542,17 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1549,23 +1563,23 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1579,23 +1593,23 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1606,17 +1620,17 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1627,17 +1641,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1648,26 +1662,26 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1678,17 +1692,17 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1699,22 +1713,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="G24" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1728,19 +1742,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1754,19 +1768,19 @@
         <v>14</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1777,17 +1791,17 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1798,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="16">
         <v>61202021621</v>
@@ -1808,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1819,17 +1833,17 @@
         <v>3</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
@@ -1843,17 +1857,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>33</v>
@@ -1867,17 +1884,17 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>34</v>
@@ -1894,17 +1911,17 @@
         <v>11</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1915,17 +1932,17 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1936,17 +1953,17 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1960,14 +1977,14 @@
         <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1978,17 +1995,17 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2002,14 +2019,14 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1">
@@ -2017,14 +2034,14 @@
         <v>25</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -2036,17 +2053,17 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>8</v>
@@ -2060,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
@@ -2082,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>24</v>
@@ -2094,7 +2111,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="4" t="s">
@@ -2109,19 +2126,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="11"/>
     </row>
@@ -2133,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2156,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2179,19 +2196,19 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2202,19 +2219,21 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="I46" s="4" t="s">
         <v>2</v>
       </c>
@@ -2227,17 +2246,17 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="4" t="s">
@@ -2252,17 +2271,17 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="4" t="s">
@@ -2277,19 +2296,21 @@
         <v>1</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2302,17 +2323,17 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="4" t="s">
@@ -2327,17 +2348,17 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>25</v>
@@ -2351,21 +2372,21 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2376,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19" t="s">
@@ -2401,17 +2422,17 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="4" t="s">
@@ -2426,21 +2447,21 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2451,17 +2472,17 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="4" t="s">
@@ -2476,17 +2497,17 @@
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="4" t="s">
@@ -2501,17 +2522,17 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="4" t="s">
@@ -2526,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>21</v>
@@ -2534,10 +2555,10 @@
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2548,18 +2569,18 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2570,16 +2591,16 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
